--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF020_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF020_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF020_任意項目申請\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A7D54C-5B2E-4174-9556-8EA78EC05FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="720" windowWidth="20895" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="720" windowWidth="20895" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="任意項目申請" sheetId="28" r:id="rId1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -445,6 +444,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -490,33 +507,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="桁区切り" xfId="6" builtinId="6"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma [0]" xfId="6" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="4"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準 3 2 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,7 +556,7 @@
         <xdr:cNvPr id="65" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -576,7 +575,7 @@
           <xdr:cNvPr id="66" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -630,7 +629,7 @@
           <xdr:cNvPr id="67" name="直線コネクタ 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -670,7 +669,7 @@
           <xdr:cNvPr id="68" name="直線コネクタ 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -710,7 +709,7 @@
           <xdr:cNvPr id="69" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -748,16 +747,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -766,7 +762,7 @@
           <xdr:cNvPr id="70" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -804,16 +800,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -822,7 +815,7 @@
           <xdr:cNvPr id="71" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -860,16 +853,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -894,7 +884,7 @@
         <xdr:cNvPr id="72" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +903,7 @@
           <xdr:cNvPr id="73" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -967,7 +957,7 @@
           <xdr:cNvPr id="74" name="直線コネクタ 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1007,7 +997,7 @@
           <xdr:cNvPr id="75" name="直線コネクタ 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1047,7 +1037,7 @@
           <xdr:cNvPr id="76" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1085,16 +1075,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1103,7 +1090,7 @@
           <xdr:cNvPr id="77" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1141,16 +1128,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1159,7 +1143,7 @@
           <xdr:cNvPr id="78" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1197,16 +1181,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1231,7 +1212,7 @@
         <xdr:cNvPr id="79" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1231,7 @@
           <xdr:cNvPr id="80" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1304,7 +1285,7 @@
           <xdr:cNvPr id="81" name="直線コネクタ 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1344,7 +1325,7 @@
           <xdr:cNvPr id="82" name="直線コネクタ 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1365,7 @@
           <xdr:cNvPr id="83" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,16 +1403,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1440,7 +1418,7 @@
           <xdr:cNvPr id="84" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1478,16 +1456,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1496,7 +1471,7 @@
           <xdr:cNvPr id="85" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1534,16 +1509,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1568,7 +1540,7 @@
         <xdr:cNvPr id="86" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1559,7 @@
           <xdr:cNvPr id="87" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1641,7 +1613,7 @@
           <xdr:cNvPr id="88" name="直線コネクタ 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1681,7 +1653,7 @@
           <xdr:cNvPr id="89" name="直線コネクタ 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1721,7 +1693,7 @@
           <xdr:cNvPr id="90" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1759,16 +1731,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1777,7 +1746,7 @@
           <xdr:cNvPr id="91" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1815,16 +1784,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1833,7 +1799,7 @@
           <xdr:cNvPr id="92" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1871,16 +1837,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1905,7 +1868,7 @@
         <xdr:cNvPr id="93" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1887,7 @@
           <xdr:cNvPr id="94" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1978,7 +1941,7 @@
           <xdr:cNvPr id="95" name="直線コネクタ 94">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2018,7 +1981,7 @@
           <xdr:cNvPr id="96" name="直線コネクタ 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2058,7 +2021,7 @@
           <xdr:cNvPr id="97" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2096,16 +2059,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2114,7 +2074,7 @@
           <xdr:cNvPr id="98" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2152,16 +2112,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2170,7 +2127,7 @@
           <xdr:cNvPr id="99" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2208,16 +2165,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2612,12 +2566,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184022B-8B52-4EAD-B846-0F9397241960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2652,10 +2604,10 @@
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2666,10 +2618,10 @@
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2693,8 +2645,8 @@
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2707,8 +2659,8 @@
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2721,26 +2673,26 @@
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
@@ -2749,12 +2701,12 @@
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
@@ -2763,12 +2715,12 @@
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
@@ -2777,12 +2729,12 @@
     </row>
     <row r="12" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
@@ -2791,12 +2743,12 @@
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
@@ -2805,12 +2757,12 @@
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="15"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
@@ -2819,12 +2771,12 @@
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="15"/>
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
@@ -2833,12 +2785,12 @@
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="15"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
@@ -2847,12 +2799,12 @@
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="15"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
@@ -2861,12 +2813,12 @@
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="15"/>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
@@ -2889,16 +2841,16 @@
     </row>
     <row r="20" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2931,16 +2883,16 @@
     </row>
     <row r="23" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3150,20 +3102,6 @@
     <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="B23:C23"/>
@@ -3180,6 +3118,20 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF020_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF020_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF020_任意項目申請\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C59334-C419-4E74-A90C-F1ECC5B4184F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="720" windowWidth="20895" windowHeight="13605"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20100" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="任意項目申請" sheetId="28" r:id="rId1"/>
@@ -72,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,10 +121,9 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="源ノ角ゴシック Normal"/>
+      <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,6 +357,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +375,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -378,9 +390,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +420,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -408,6 +447,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -432,6 +486,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -444,78 +507,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma [0]" xfId="6" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="桁区切り" xfId="6" builtinId="6"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,7 +556,7 @@
         <xdr:cNvPr id="65" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -575,7 +575,7 @@
           <xdr:cNvPr id="66" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -618,8 +618,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -629,7 +629,7 @@
           <xdr:cNvPr id="67" name="直線コネクタ 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -669,7 +669,7 @@
           <xdr:cNvPr id="68" name="直線コネクタ 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -709,7 +709,7 @@
           <xdr:cNvPr id="69" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -747,13 +747,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -762,7 +765,7 @@
           <xdr:cNvPr id="70" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -800,13 +803,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -815,7 +821,7 @@
           <xdr:cNvPr id="71" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -853,13 +859,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -884,7 +893,7 @@
         <xdr:cNvPr id="72" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,7 +912,7 @@
           <xdr:cNvPr id="73" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -946,8 +955,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -957,7 +966,7 @@
           <xdr:cNvPr id="74" name="直線コネクタ 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -997,7 +1006,7 @@
           <xdr:cNvPr id="75" name="直線コネクタ 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1037,7 +1046,7 @@
           <xdr:cNvPr id="76" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1075,13 +1084,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1090,7 +1102,7 @@
           <xdr:cNvPr id="77" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1128,13 +1140,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1143,7 +1158,7 @@
           <xdr:cNvPr id="78" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1181,13 +1196,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1212,7 +1230,7 @@
         <xdr:cNvPr id="79" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1249,7 @@
           <xdr:cNvPr id="80" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1274,8 +1292,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1285,7 +1303,7 @@
           <xdr:cNvPr id="81" name="直線コネクタ 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1325,7 +1343,7 @@
           <xdr:cNvPr id="82" name="直線コネクタ 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1365,7 +1383,7 @@
           <xdr:cNvPr id="83" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,13 +1421,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1418,7 +1439,7 @@
           <xdr:cNvPr id="84" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1456,13 +1477,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1471,7 +1495,7 @@
           <xdr:cNvPr id="85" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1509,13 +1533,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1540,7 +1567,7 @@
         <xdr:cNvPr id="86" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1586,7 @@
           <xdr:cNvPr id="87" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1602,8 +1629,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1613,7 +1640,7 @@
           <xdr:cNvPr id="88" name="直線コネクタ 87">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1653,7 +1680,7 @@
           <xdr:cNvPr id="89" name="直線コネクタ 88">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1693,7 +1720,7 @@
           <xdr:cNvPr id="90" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1731,13 +1758,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1746,7 +1776,7 @@
           <xdr:cNvPr id="91" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1784,13 +1814,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1799,7 +1832,7 @@
           <xdr:cNvPr id="92" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1837,13 +1870,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1868,7 +1904,7 @@
         <xdr:cNvPr id="93" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1923,7 @@
           <xdr:cNvPr id="94" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1930,8 +1966,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1941,7 +1977,7 @@
           <xdr:cNvPr id="95" name="直線コネクタ 94">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1981,7 +2017,7 @@
           <xdr:cNvPr id="96" name="直線コネクタ 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2021,7 +2057,7 @@
           <xdr:cNvPr id="97" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2059,13 +2095,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2074,7 +2113,7 @@
           <xdr:cNvPr id="98" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2112,13 +2151,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2127,7 +2169,7 @@
           <xdr:cNvPr id="99" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2165,13 +2207,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2566,12 +2611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184022B-8B52-4EAD-B846-0F9397241960}">
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2583,7 +2628,7 @@
     <col min="18" max="16384" width="2.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="1"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2592,7 +2637,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2601,505 +2646,505 @@
       <c r="K2" s="5"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="3.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="97.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="3.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="3.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="74.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="3.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-    </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-    </row>
-    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-    </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-    </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="2:11" ht="15" customHeight="1">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="2:11" ht="15" customHeight="1">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+    </row>
+    <row r="35" spans="2:11" ht="15" customHeight="1">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+    </row>
+    <row r="36" spans="2:11" ht="15" customHeight="1">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="2:11" ht="15" customHeight="1">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+    </row>
+    <row r="38" spans="2:11" ht="15" customHeight="1">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+    </row>
+    <row r="39" spans="2:11" ht="15" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15" customHeight="1"/>
+    <row r="41" spans="2:11" ht="15" customHeight="1"/>
+    <row r="42" spans="2:11" ht="15" customHeight="1"/>
+    <row r="43" spans="2:11" ht="15" customHeight="1"/>
+    <row r="44" spans="2:11" ht="15" customHeight="1"/>
+    <row r="45" spans="2:11" ht="15" customHeight="1"/>
+    <row r="46" spans="2:11" ht="15" customHeight="1"/>
+    <row r="47" spans="2:11" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="B20:C20"/>
